--- a/biology/Zoologie/Caiman_(genre)/Caiman_(genre).xlsx
+++ b/biology/Zoologie/Caiman_(genre)/Caiman_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Caiman est le nom latin du genre caïman, appartenant à l'ordre des crocodiliens et à la famille des Alligatoridae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois espèces de ce genre se rencontrent en Amérique centrale et en Amérique du Sud.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (14 juil. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (14 juil. 2011) :
 Caiman crocodilus (Linnaeus, 1758) — Caïman à lunettes
 Caiman latirostris (Daudin, 1802) — Caïman à museau large
 Caiman yacare (Daudin, 1802) — Jacara
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des animaux proches des alligators, mais ne présentant pas de septum osseux entre les narines.
 </t>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Spix, 1825 : Animalia nova sive species nova lacertarum quas in itinere per Brasiliam annis MDCCCXVII-MDCCCXX jussu et auspicius Maximiliani Josephi I Bavariae Regis suscepto collegit et descripsit Dr. J. B. de Spix, p. 1-26 (texte intégral).</t>
         </is>
